--- a/testcase/Практическое задание №2_SQL(Чадов.А.А).xlsx
+++ b/testcase/Практическое задание №2_SQL(Чадов.А.А).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Курсы\IBS\Практика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skoch\IdeaProjects\IBSProjects\ibs-practical-task-3\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0F3283-6E81-4485-B8F7-7D0C1A7544DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E52F81F-C825-4413-ABE5-3257C105A9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DD3BCD5F-F9E0-4FC5-99E1-82C220FD594A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Тест кейс</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Высокий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -237,6 +240,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,15 +277,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -261,12 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -274,21 +292,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8C3B3C-4571-44D7-BA6B-68CC0A722228}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L4"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,128 +621,128 @@
     <col min="12" max="12" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="L2" s="13"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="25">
+      <c r="F4" s="12"/>
+      <c r="G4" s="14">
         <v>45156</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
       <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-    </row>
-    <row r="7" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -747,108 +750,100 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="10" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -858,9 +853,22 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
